--- a/template/Router/blank_RTXチェックシート.xlsx
+++ b/template/Router/blank_RTXチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="チェックシート(Router)" sheetId="4" r:id="rId4"/>
     <sheet name="テンプレート(Router)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1533156663" val="934" rev="123" revOS="4"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>共通設定</t>
   </si>
@@ -150,18 +150,6 @@
     <t>_base</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Solaris</t>
-  </si>
-  <si>
-    <t>XSCF</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -219,19 +207,15 @@
     <t>snmp_version:k</t>
   </si>
   <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>host2</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>v2</t>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>_redmine:ネットワーク</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -458,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,6 +486,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1225,9 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1303,49 +1288,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1358,7 +1333,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1371,7 +1346,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1384,7 +1359,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1397,7 +1372,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1494,16 +1469,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1511,16 +1486,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1615,39 +1590,39 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1669,9 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1682,7 +1655,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -1708,37 +1681,27 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5">

--- a/template/Router/blank_RTXチェックシート.xlsx
+++ b/template/Router/blank_RTXチェックシート.xlsx
@@ -9,29 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Router)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Router)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Router)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Router)" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$73</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1533156663" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1533156663" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1533156663" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1533156663"/>
+      <pm:revision xmlns:pm="smNativeData" day="1547424174" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1547424174" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1547424174" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1547424174"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
   <si>
     <t>共通設定</t>
   </si>
@@ -96,6 +100,15 @@
     <t>network</t>
   </si>
   <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>router1</t>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -117,10 +130,10 @@
     <t>OS名</t>
   </si>
   <si>
-    <t>OSリリース</t>
-  </si>
-  <si>
-    <t>ネットワーク構成</t>
+    <t>システム</t>
+  </si>
+  <si>
+    <t>シリアル</t>
   </si>
   <si>
     <t>管理LAN</t>
@@ -150,6 +163,24 @@
     <t>_base</t>
   </si>
   <si>
+    <t>OS名</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>_redmine:ネットワーク</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>config.version</t>
+  </si>
+  <si>
+    <t>environment.serial</t>
+  </si>
+  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -186,6 +217,72 @@
     <t>Y</t>
   </si>
   <si>
+    <t>構成情報</t>
+  </si>
+  <si>
+    <t>show config コマンドで構成情報を検索</t>
+  </si>
+  <si>
+    <t>FWバージョン</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>バージョン情報</t>
+  </si>
+  <si>
+    <t>show environment コマンドでバージョン確認</t>
+  </si>
+  <si>
+    <t>environment.firmware</t>
+  </si>
+  <si>
+    <t>FW更新</t>
+  </si>
+  <si>
+    <t>environment.security_class</t>
+  </si>
+  <si>
+    <t>セキュリティクラス</t>
+  </si>
+  <si>
+    <t>snmp.host</t>
+  </si>
+  <si>
+    <t>SNMPアクセス許可</t>
+  </si>
+  <si>
+    <t>snmp.community</t>
+  </si>
+  <si>
+    <t>SNMPコミュニティ名</t>
+  </si>
+  <si>
+    <t>snmp.trap host</t>
+  </si>
+  <si>
+    <t>SNMPトラップ</t>
+  </si>
+  <si>
+    <t>ntpupdate</t>
+  </si>
+  <si>
+    <t>NTP更新スケジュール</t>
+  </si>
+  <si>
+    <t>NTPホスト</t>
+  </si>
+  <si>
+    <t>ip_route</t>
+  </si>
+  <si>
+    <t>ルーティングテーブル</t>
+  </si>
+  <si>
+    <t>show ip route　コマンドでルーティングテーブルを検索</t>
+  </si>
+  <si>
     <t>arp</t>
   </si>
   <si>
@@ -207,22 +304,173 @@
     <t>snmp_version:k</t>
   </si>
   <si>
-    <t>OS名</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>_redmine:ネットワーク</t>
-    <phoneticPr fontId="6"/>
+    <t>${ip}</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>host2</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+  </si>
+  <si>
+    <t>2. プロジェクト作成</t>
+  </si>
+  <si>
+    <t>PowerShell コンソールを開いて、「getconfig -g "プロジェクト名"」でプロジェクトを作成 します。</t>
+  </si>
+  <si>
+    <t>ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
+  </si>
+  <si>
+    <t>cd C:\Users\Administrator\Desktop</t>
+  </si>
+  <si>
+    <t>getconfig -g test_project1</t>
+  </si>
+  <si>
+    <t>以降の作業は作成したプロジェクトディレクトリに移動して実行します。</t>
+  </si>
+  <si>
+    <t>3. 検査シート編集</t>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリ直下にある Excel ファイル(本ファイル)を開きます。</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)は必須入力項目となります。</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのIDを入力します。インベントリ結果の値の比較をする場合に使用します。テンプレートの設定</t>
+  </si>
+  <si>
+    <t>エイリアス</t>
+  </si>
+  <si>
+    <t>(オプション)  VMWare 仮想マシンの場合は、vCenter で定義した仮想マシン名を入力します。オンプレの場合は空欄にします。</t>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+  </si>
+  <si>
+    <t>入力例：</t>
+  </si>
+  <si>
+    <t>4. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+  </si>
+  <si>
+    <t>5. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+  </si>
+  <si>
+    <t>6. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>* YAMAHA RTXシリーズネットワーク機器に接続し、HW／OS 情報を収集します。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査するシナリオID(チェックシート名カッコ内のID)。Router を指定します。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\Router\config_rtx.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>// RouterRTX 接続情報</t>
+  </si>
+  <si>
+    <t>account.RouterRTX.Test.password  = 'console0'</t>
+  </si>
+  <si>
+    <t>account.RouterRTX.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Router\config_rtx.groovy</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Router\config_rtx.groovy -rp {Redmineプロジェクト名}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,13 +515,28 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +579,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -433,16 +702,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,19 +902,95 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="出力" xfId="1" builtinId="21" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -506,10 +1002,10 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1533156663" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1547424174" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1533156663" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1547424174" count="4">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -807,11 +1303,2012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9" style="20"/>
+    <col min="7" max="7" width="13.75" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="20" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="20" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9" style="20" customWidth="1"/>
+    <col min="13" max="16" width="9.5" style="20" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="20" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="20" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="20" customWidth="1"/>
+    <col min="21" max="1030" width="8.75" style="20" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="31">
+        <v>1</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="31">
+        <v>2</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="31">
+        <v>3</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="19"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="19"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="19"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="19"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="19"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="19"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="19"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="19"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="19"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="19"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B80" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C83" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="J33:K33"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="landscape" cellComments="asDisplayed"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -829,19 +3326,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1190,7 +3687,7 @@
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
@@ -1199,7 +3696,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1533156663" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1208,11 +3705,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1226,47 +3725,47 @@
     <col min="12" max="1022" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>12</v>
@@ -1279,46 +3778,60 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -1385,7 +3898,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1438,12 +3951,12 @@
       <c r="K15" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1533156663" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1452,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1469,33 +3982,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1527,12 +4040,12 @@
       <c r="E6" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1533156663" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1541,18 +4054,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
@@ -1587,51 +4100,237 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>53</v>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1533156663" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1640,11 +4339,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1655,22 +4356,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1681,27 +4382,37 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
@@ -2793,7 +5504,7 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
@@ -2802,7 +5513,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1533156663" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Router/blank_RTXチェックシート.xlsx
+++ b/template/Router/blank_RTXチェックシート.xlsx
@@ -1365,7 +1365,7 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1385,9 +1385,8 @@
     <col min="18" max="18" width="10.75" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.25" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.25" style="1" customWidth="1"/>
-    <col min="21" max="1030" width="8.75" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="9" style="1" customWidth="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="8.75" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -3386,8 +3385,6 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="1019" width="8.75" customWidth="1"/>
-    <col min="1020" max="1021" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -3775,9 +3772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K15"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3788,7 +3783,6 @@
     <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="28.625" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="1022" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -4135,8 +4129,6 @@
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="54.875" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4450,15 +4442,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="1009" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
